--- a/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="19416" windowHeight="11016" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>Max_Perfomance_Test</t>
+  </si>
+  <si>
+    <t>Stress_Test</t>
+  </si>
+  <si>
+    <t>Подтверждение максимальной производительности</t>
   </si>
 </sst>
 </file>
@@ -1727,15 +1733,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="67"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1745,6 +1742,12 @@
     <xf numFmtId="0" fontId="7" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1752,6 +1755,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2178,7 +2184,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2542,7 +2548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2654,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView topLeftCell="I31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="K27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,7 +3454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>63</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>63</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>82</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>34.782608695652172</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>82</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>34.782608695652172</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>82</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>34.782608695652172</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>82</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>34.782608695652172</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>82</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>34.782608695652172</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>82</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>34.782608695652172</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>10</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>28.91566265060241</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>10</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>28.91566265060241</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>10</v>
       </c>
@@ -3807,19 +3813,24 @@
         <v>7.2289156626506026</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="78" t="s">
+    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="J31" s="84" t="s">
+      <c r="B31" s="82"/>
+      <c r="J31" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
-    </row>
-    <row r="32" spans="1:14" ht="108" x14ac:dyDescent="0.35">
+      <c r="K31" s="84"/>
+      <c r="L31" s="85"/>
+      <c r="R31" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="S31" s="84"/>
+      <c r="T31" s="85"/>
+    </row>
+    <row r="32" spans="1:22" ht="108" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>80</v>
       </c>
@@ -3844,13 +3855,13 @@
       <c r="H32" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="82" t="s">
+      <c r="K32" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="L32" s="83" t="s">
+      <c r="L32" s="80" t="s">
         <v>60</v>
       </c>
       <c r="M32" s="32" t="s">
@@ -3859,8 +3870,23 @@
       <c r="N32" s="32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="R32" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="54" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>64</v>
       </c>
@@ -3909,8 +3935,26 @@
         <f t="shared" ref="N33:N44" si="24">1-L33/M33</f>
         <v>2.9850746268656692E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="R33" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" s="62" t="str">
+        <f>VLOOKUP(R33,Соответствие!A:B,2,FALSE)</f>
+        <v>open_webTours</v>
+      </c>
+      <c r="T33" s="46">
+        <v>520</v>
+      </c>
+      <c r="U33" s="27">
+        <f>VLOOKUP(S33,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>1641</v>
+      </c>
+      <c r="V33" s="29">
+        <f>1-T33/(U33/3)</f>
+        <v>4.9360146252285242E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>0</v>
       </c>
@@ -3959,8 +4003,26 @@
         <f t="shared" si="24"/>
         <v>3.8724373576309756E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="R34" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="62" t="str">
+        <f>VLOOKUP(R34,Соответствие!A:B,2,FALSE)</f>
+        <v>log_in</v>
+      </c>
+      <c r="T34" s="46">
+        <v>422</v>
+      </c>
+      <c r="U34" s="27">
+        <f>VLOOKUP(S34,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>1352</v>
+      </c>
+      <c r="V34" s="29">
+        <f t="shared" ref="V34:V43" si="25">1-T34/(U34/3)</f>
+        <v>6.3609467455621349E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>79</v>
       </c>
@@ -4009,8 +4071,26 @@
         <f t="shared" si="24"/>
         <v>-2.006688963210701E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="R35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="S35" s="62" t="str">
+        <f>VLOOKUP(R35,Соответствие!A:B,2,FALSE)</f>
+        <v>click_flights</v>
+      </c>
+      <c r="T35" s="46">
+        <v>305</v>
+      </c>
+      <c r="U35" s="27">
+        <f>VLOOKUP(S35,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>945</v>
+      </c>
+      <c r="V35" s="29">
+        <f t="shared" si="25"/>
+        <v>3.1746031746031744E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="90" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>11</v>
       </c>
@@ -4018,11 +4098,11 @@
         <v>282</v>
       </c>
       <c r="C36" s="31">
-        <f t="shared" ref="C36:C44" si="25">GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
+        <f t="shared" ref="C36:C44" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
         <v>284.3478260869565</v>
       </c>
       <c r="D36" s="57">
-        <f t="shared" ref="D36:D45" si="26">1-B36/C36</f>
+        <f t="shared" ref="D36:D45" si="27">1-B36/C36</f>
         <v>8.2568807339449268E-3</v>
       </c>
       <c r="E36" s="62" t="str">
@@ -4059,8 +4139,26 @@
         <f t="shared" si="24"/>
         <v>1.0526315789473717E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="R36" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S36" s="62" t="str">
+        <f>VLOOKUP(R36,Соответствие!A:B,2,FALSE)</f>
+        <v>check_destination</v>
+      </c>
+      <c r="T36" s="46">
+        <v>282</v>
+      </c>
+      <c r="U36" s="27">
+        <f>VLOOKUP(S36,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>867</v>
+      </c>
+      <c r="V36" s="29">
+        <f>1-T36/(U36/3)</f>
+        <v>2.422145328719727E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>12</v>
       </c>
@@ -4072,7 +4170,7 @@
         <v>284.3478260869565</v>
       </c>
       <c r="D37" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.0458715596330195E-2</v>
       </c>
       <c r="E37" s="62" t="str">
@@ -4080,7 +4178,7 @@
         <v>choose_price</v>
       </c>
       <c r="F37" s="61">
-        <f t="shared" ref="F37:F44" si="27">C37/3</f>
+        <f t="shared" ref="F37:F44" si="28">C37/3</f>
         <v>94.782608695652172</v>
       </c>
       <c r="G37" s="27">
@@ -4109,8 +4207,26 @@
         <f t="shared" si="24"/>
         <v>5.2631578947368474E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="R37" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="62" t="str">
+        <f>VLOOKUP(R37,Соответствие!A:B,2,FALSE)</f>
+        <v>choose_price</v>
+      </c>
+      <c r="T37" s="46">
+        <v>270</v>
+      </c>
+      <c r="U37" s="27">
+        <f>VLOOKUP(S37,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>866</v>
+      </c>
+      <c r="V37" s="29">
+        <f t="shared" si="25"/>
+        <v>6.4665127020785307E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>3</v>
       </c>
@@ -4118,11 +4234,11 @@
         <v>175</v>
       </c>
       <c r="C38" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="D38" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E38" s="62" t="str">
@@ -4130,7 +4246,7 @@
         <v>details</v>
       </c>
       <c r="F38" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="G38" s="27">
@@ -4159,8 +4275,26 @@
         <f t="shared" si="24"/>
         <v>2.777777777777779E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="R38" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="62" t="str">
+        <f>VLOOKUP(R38,Соответствие!A:B,2,FALSE)</f>
+        <v>details</v>
+      </c>
+      <c r="T38" s="46">
+        <v>175</v>
+      </c>
+      <c r="U38" s="27">
+        <f>VLOOKUP(S38,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>549</v>
+      </c>
+      <c r="V38" s="29">
+        <f>1-T38/(U38/3)</f>
+        <v>4.3715846994535568E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>4</v>
       </c>
@@ -4168,11 +4302,11 @@
         <v>280</v>
       </c>
       <c r="C39" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>288</v>
       </c>
       <c r="D39" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E39" s="62" t="str">
@@ -4180,7 +4314,7 @@
         <v>itinerary</v>
       </c>
       <c r="F39" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>96</v>
       </c>
       <c r="G39" s="27">
@@ -4209,8 +4343,26 @@
         <f t="shared" si="24"/>
         <v>1.4084507042253502E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="R39" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" s="62" t="str">
+        <f>VLOOKUP(R39,Соответствие!A:B,2,FALSE)</f>
+        <v>itinerary</v>
+      </c>
+      <c r="T39" s="46">
+        <v>280</v>
+      </c>
+      <c r="U39" s="27">
+        <f>VLOOKUP(S39,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>873</v>
+      </c>
+      <c r="V39" s="29">
+        <f t="shared" si="25"/>
+        <v>3.7800687285223344E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>13</v>
       </c>
@@ -4218,11 +4370,11 @@
         <v>73</v>
       </c>
       <c r="C40" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>72</v>
       </c>
       <c r="D40" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.388888888888884E-2</v>
       </c>
       <c r="E40" s="62" t="str">
@@ -4230,7 +4382,7 @@
         <v>cancel_ticket</v>
       </c>
       <c r="F40" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="G40" s="27">
@@ -4259,8 +4411,26 @@
         <f t="shared" si="24"/>
         <v>-2.8169014084507005E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="R40" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" s="62" t="str">
+        <f>VLOOKUP(R40,Соответствие!A:B,2,FALSE)</f>
+        <v>cancel_ticket</v>
+      </c>
+      <c r="T40" s="46">
+        <v>73</v>
+      </c>
+      <c r="U40" s="27">
+        <f>VLOOKUP(S40,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>220</v>
+      </c>
+      <c r="V40" s="29">
+        <f t="shared" si="25"/>
+        <v>4.5454545454545192E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>6</v>
       </c>
@@ -4268,11 +4438,11 @@
         <v>326</v>
       </c>
       <c r="C41" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>320.3478260869565</v>
       </c>
       <c r="D41" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.7643865363735189E-2</v>
       </c>
       <c r="E41" s="62" t="str">
@@ -4280,7 +4450,7 @@
         <v>log_out</v>
       </c>
       <c r="F41" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>106.78260869565217</v>
       </c>
       <c r="G41" s="27">
@@ -4309,8 +4479,26 @@
         <f t="shared" si="24"/>
         <v>-2.515723270440251E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="R41" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41" s="62" t="str">
+        <f>VLOOKUP(R41,Соответствие!A:B,2,FALSE)</f>
+        <v>log_out</v>
+      </c>
+      <c r="T41" s="46">
+        <v>326</v>
+      </c>
+      <c r="U41" s="27">
+        <f>VLOOKUP(S41,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>970</v>
+      </c>
+      <c r="V41" s="29">
+        <f>1-T41/(U41/3)</f>
+        <v>-8.2474226804123418E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="90" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>66</v>
       </c>
@@ -4318,11 +4506,11 @@
         <v>97</v>
       </c>
       <c r="C42" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="D42" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E42" s="62" t="str">
@@ -4330,7 +4518,7 @@
         <v>sing_up</v>
       </c>
       <c r="F42" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="G42" s="27">
@@ -4359,8 +4547,26 @@
         <f t="shared" si="24"/>
         <v>-1.0416666666666741E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="R42" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="S42" s="62" t="str">
+        <f>VLOOKUP(R42,Соответствие!A:B,2,FALSE)</f>
+        <v>sing_up</v>
+      </c>
+      <c r="T42" s="46">
+        <v>97</v>
+      </c>
+      <c r="U42" s="27">
+        <f>VLOOKUP(S42,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>293</v>
+      </c>
+      <c r="V42" s="29">
+        <f t="shared" si="25"/>
+        <v>6.8259385665530026E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>65</v>
       </c>
@@ -4368,11 +4574,11 @@
         <v>97</v>
       </c>
       <c r="C43" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="D43" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E43" s="62" t="str">
@@ -4380,7 +4586,7 @@
         <v>customer_profile</v>
       </c>
       <c r="F43" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="G43" s="27">
@@ -4409,8 +4615,26 @@
         <f t="shared" si="24"/>
         <v>-1.0416666666666741E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="R43" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="S43" s="62" t="str">
+        <f>VLOOKUP(R43,Соответствие!A:B,2,FALSE)</f>
+        <v>customer_profile</v>
+      </c>
+      <c r="T43" s="46">
+        <v>97</v>
+      </c>
+      <c r="U43" s="27">
+        <f>VLOOKUP(S43,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>292</v>
+      </c>
+      <c r="V43" s="29">
+        <f t="shared" si="25"/>
+        <v>3.424657534246478E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="126" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>67</v>
       </c>
@@ -4418,11 +4642,11 @@
         <v>97</v>
       </c>
       <c r="C44" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="D44" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E44" s="62" t="str">
@@ -4430,7 +4654,7 @@
         <v>sucsess_continue</v>
       </c>
       <c r="F44" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="G44" s="27">
@@ -4459,8 +4683,26 @@
         <f t="shared" si="24"/>
         <v>-1.0416666666666741E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R44" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="S44" s="62" t="str">
+        <f>VLOOKUP(R44,Соответствие!A:B,2,FALSE)</f>
+        <v>sucsess_continue</v>
+      </c>
+      <c r="T44" s="46">
+        <v>97</v>
+      </c>
+      <c r="U44" s="27">
+        <f>VLOOKUP(S44,'Summary Report'!Z:AI,8,FALSE)</f>
+        <v>293</v>
+      </c>
+      <c r="V44" s="29">
+        <f>1-T44/(U44/3)</f>
+        <v>6.8259385665530026E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="49" t="s">
         <v>7</v>
       </c>
@@ -4473,17 +4715,17 @@
         <v>3005.2676794133054</v>
       </c>
       <c r="D45" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.0386762827484972E-2</v>
       </c>
       <c r="E45" s="62"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C47" s="37" t="s">
         <v>78</v>
       </c>
@@ -4496,7 +4738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>77</v>
       </c>
@@ -4543,7 +4785,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49:G52" si="28">ROUND(F49,0)</f>
+        <f t="shared" ref="G49:G52" si="29">ROUND(F49,0)</f>
         <v>1</v>
       </c>
       <c r="H49">
@@ -4563,7 +4805,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="38">
-        <f t="shared" ref="D50:D53" si="29">60/C50</f>
+        <f t="shared" ref="D50:D53" si="30">60/C50</f>
         <v>3</v>
       </c>
       <c r="E50" s="38">
@@ -4597,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="E51" s="38">
@@ -4631,7 +4873,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="E52" s="38">
@@ -4642,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H52">
@@ -4666,7 +4908,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="E53" s="38">
@@ -4684,9 +4926,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="J31:L31"/>
+    <mergeCell ref="R31:T31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4696,10 +4939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4707,7 +4950,7 @@
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>27</v>
       </c>
@@ -4768,8 +5011,38 @@
       <c r="V1" s="76" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>92</v>
       </c>
@@ -4830,8 +5103,38 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>1.22</v>
+      </c>
+      <c r="AD2">
+        <v>1.397</v>
+      </c>
+      <c r="AE2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AF2">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>549</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>94</v>
       </c>
@@ -4892,8 +5195,38 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3">
+        <v>0.43</v>
+      </c>
+      <c r="AC3">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="AD3">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AE3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AF3">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AG3">
+        <v>293</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>95</v>
       </c>
@@ -4954,8 +5287,38 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AC4">
+        <v>1.101</v>
+      </c>
+      <c r="AD4">
+        <v>1.401</v>
+      </c>
+      <c r="AE4">
+        <v>0.114</v>
+      </c>
+      <c r="AF4">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>213</v>
+      </c>
+      <c r="AH4">
+        <v>6</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>96</v>
       </c>
@@ -5016,8 +5379,38 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AC5">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AD5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AE5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AF5">
+        <v>0.876</v>
+      </c>
+      <c r="AG5">
+        <v>318</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>97</v>
       </c>
@@ -5078,8 +5471,38 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>0.375</v>
+      </c>
+      <c r="AD6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AE6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AF6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>264</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>98</v>
       </c>
@@ -5140,8 +5563,38 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AD7">
+        <v>1.401</v>
+      </c>
+      <c r="AE7">
+        <v>0.34</v>
+      </c>
+      <c r="AF7">
+        <v>1.256</v>
+      </c>
+      <c r="AG7">
+        <v>1637</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>85</v>
       </c>
@@ -5202,8 +5655,38 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AC8">
+        <v>0.24</v>
+      </c>
+      <c r="AD8">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AF8">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AG8">
+        <v>220</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>100</v>
       </c>
@@ -5264,8 +5747,38 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AC9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AD9">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AG9">
+        <v>867</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>101</v>
       </c>
@@ -5326,8 +5839,38 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AC10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AD10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AG10">
+        <v>866</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>102</v>
       </c>
@@ -5388,8 +5931,38 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AF11">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>945</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>103</v>
       </c>
@@ -5450,8 +6023,38 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AC12">
+        <v>0.08</v>
+      </c>
+      <c r="AD12">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AE12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AG12">
+        <v>292</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>104</v>
       </c>
@@ -5512,8 +6115,38 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AC13">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AD13">
+        <v>0.107</v>
+      </c>
+      <c r="AE13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AG13">
+        <v>549</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
         <v>105</v>
       </c>
@@ -5574,8 +6207,38 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB14">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AC14">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AD14">
+        <v>0.438</v>
+      </c>
+      <c r="AE14">
+        <v>0.03</v>
+      </c>
+      <c r="AF14">
+        <v>0.372</v>
+      </c>
+      <c r="AG14">
+        <v>873</v>
+      </c>
+      <c r="AH14">
+        <v>6</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
         <v>106</v>
       </c>
@@ -5636,8 +6299,38 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB15">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AC15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AD15">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>0.02</v>
+      </c>
+      <c r="AF15">
+        <v>0.19</v>
+      </c>
+      <c r="AG15">
+        <v>1352</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>107</v>
       </c>
@@ -5698,8 +6391,38 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AC16">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AE16">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AF16">
+        <v>0.154</v>
+      </c>
+      <c r="AG16">
+        <v>970</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>108</v>
       </c>
@@ -5760,8 +6483,38 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB17">
+        <v>0.124</v>
+      </c>
+      <c r="AC17">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AD17">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AE17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>1641</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>109</v>
       </c>
@@ -5822,8 +6575,38 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB18">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AC18">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AD18">
+        <v>0.184</v>
+      </c>
+      <c r="AE18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF18">
+        <v>0.108</v>
+      </c>
+      <c r="AG18">
+        <v>293</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>110</v>
       </c>
@@ -5884,8 +6667,38 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB19">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AF19">
+        <v>0.191</v>
+      </c>
+      <c r="AG19">
+        <v>293</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -5897,12 +6710,15 @@
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="P21" t="s">
         <v>113</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6073,13 +6889,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
     </row>
     <row r="11" spans="5:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -6232,13 +7048,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="8" t="s">
@@ -6398,13 +7214,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">
